--- a/po_analysis_by_asin/B0BZ17BQ4Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZ17BQ4Z_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>30</v>
@@ -468,47 +468,47 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>330</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45418</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45453</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45460</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45481</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45488</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>80</v>
@@ -516,57 +516,305 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45495</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45502</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45509</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45516</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45523</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45530</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45572</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B47" t="n">
         <v>320</v>
       </c>
     </row>
@@ -581,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,57 +851,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>320</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZ17BQ4Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZ17BQ4Z_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -845,7 +846,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -975,6 +976,803 @@
       </c>
       <c r="B17" t="n">
         <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-57.60856723560526</v>
+      </c>
+      <c r="D2" t="n">
+        <v>197.12242250094</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>71</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-48.81965012255916</v>
+      </c>
+      <c r="D3" t="n">
+        <v>194.331159964443</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-55.86446618759714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>209.6828617504705</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>74</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-51.09990030024967</v>
+      </c>
+      <c r="D5" t="n">
+        <v>202.6499034232732</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>76</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-54.03589468046058</v>
+      </c>
+      <c r="D6" t="n">
+        <v>205.2570916728295</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>77</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-53.13631300799709</v>
+      </c>
+      <c r="D7" t="n">
+        <v>202.2113623324555</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-52.51307762231691</v>
+      </c>
+      <c r="D8" t="n">
+        <v>193.4479367638591</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-56.36301886260774</v>
+      </c>
+      <c r="D9" t="n">
+        <v>207.154132257562</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-47.91654568790253</v>
+      </c>
+      <c r="D10" t="n">
+        <v>211.2622146244834</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>81</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-40.80488660396878</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200.279716854368</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>82</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-47.47722395137555</v>
+      </c>
+      <c r="D12" t="n">
+        <v>204.5246730149104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>84</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-39.68313071784359</v>
+      </c>
+      <c r="D13" t="n">
+        <v>207.1038983226011</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>84</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-34.22028902806881</v>
+      </c>
+      <c r="D14" t="n">
+        <v>206.0014867182419</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>85</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-41.33744722882256</v>
+      </c>
+      <c r="D15" t="n">
+        <v>203.864874519841</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>86</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-41.14589274586984</v>
+      </c>
+      <c r="D16" t="n">
+        <v>215.8039896036346</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>87</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-49.54589927081017</v>
+      </c>
+      <c r="D17" t="n">
+        <v>208.162260909397</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>88</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-36.67983870093261</v>
+      </c>
+      <c r="D18" t="n">
+        <v>209.3379111970686</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-35.92492353466768</v>
+      </c>
+      <c r="D19" t="n">
+        <v>223.3341457507771</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-30.10267239315218</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217.7974295866267</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>91</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-32.27250225922514</v>
+      </c>
+      <c r="D21" t="n">
+        <v>218.7852674897666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>92</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-39.32360290896273</v>
+      </c>
+      <c r="D22" t="n">
+        <v>218.3050518163494</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>93</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-44.45623783864209</v>
+      </c>
+      <c r="D23" t="n">
+        <v>216.7491256828592</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>96</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-28.80956400658151</v>
+      </c>
+      <c r="D24" t="n">
+        <v>217.9556104405984</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>97</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-26.35990577684787</v>
+      </c>
+      <c r="D25" t="n">
+        <v>222.0132826990824</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>98</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-35.29124029419165</v>
+      </c>
+      <c r="D26" t="n">
+        <v>219.2018384201755</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>99</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-22.88068274467107</v>
+      </c>
+      <c r="D27" t="n">
+        <v>225.7934827004731</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>100</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-30.66749780173316</v>
+      </c>
+      <c r="D28" t="n">
+        <v>223.2409796052005</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>101</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-24.03583138942167</v>
+      </c>
+      <c r="D29" t="n">
+        <v>235.9856403704042</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>101</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-29.00524281572673</v>
+      </c>
+      <c r="D30" t="n">
+        <v>233.1820860187117</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>102</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-26.41873036276019</v>
+      </c>
+      <c r="D31" t="n">
+        <v>235.4642775508224</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>104</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-19.24400464868381</v>
+      </c>
+      <c r="D32" t="n">
+        <v>237.2922065011009</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>107</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-25.56879016145766</v>
+      </c>
+      <c r="D33" t="n">
+        <v>235.9690933926576</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>109</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-22.25958876908686</v>
+      </c>
+      <c r="D34" t="n">
+        <v>236.0139849805244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>115</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-11.24412133765992</v>
+      </c>
+      <c r="D35" t="n">
+        <v>240.5929232925409</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>124</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.341832401101204</v>
+      </c>
+      <c r="D36" t="n">
+        <v>241.201024396021</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>129</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.89846468862263</v>
+      </c>
+      <c r="D37" t="n">
+        <v>249.1591546020886</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>130</v>
+      </c>
+      <c r="C38" t="n">
+        <v>11.30976529547469</v>
+      </c>
+      <c r="D38" t="n">
+        <v>258.210596501035</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>133</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.120943213235334</v>
+      </c>
+      <c r="D39" t="n">
+        <v>257.4006392365955</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>134</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11.66014310237502</v>
+      </c>
+      <c r="D40" t="n">
+        <v>263.2643585454342</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>135</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.257796550263581</v>
+      </c>
+      <c r="D41" t="n">
+        <v>259.6578292632533</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>136</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.055649324885635</v>
+      </c>
+      <c r="D42" t="n">
+        <v>261.3496916582055</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>136</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13.87335073449718</v>
+      </c>
+      <c r="D43" t="n">
+        <v>263.7094316517279</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>137</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.183401511203953</v>
+      </c>
+      <c r="D44" t="n">
+        <v>255.9384453550017</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>138</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.362262891394</v>
+      </c>
+      <c r="D45" t="n">
+        <v>263.1858571722306</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>139</v>
+      </c>
+      <c r="C46" t="n">
+        <v>13.50064397415771</v>
+      </c>
+      <c r="D46" t="n">
+        <v>262.7352625706256</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>145</v>
+      </c>
+      <c r="C47" t="n">
+        <v>18.57954366602796</v>
+      </c>
+      <c r="D47" t="n">
+        <v>269.2577063493997</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>146</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24.27161532585775</v>
+      </c>
+      <c r="D48" t="n">
+        <v>276.078348669432</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>147</v>
+      </c>
+      <c r="C49" t="n">
+        <v>20.18703768672599</v>
+      </c>
+      <c r="D49" t="n">
+        <v>270.8569423361853</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>148</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12.8608120476648</v>
+      </c>
+      <c r="D50" t="n">
+        <v>268.9626278092605</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>149</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24.13246722295109</v>
+      </c>
+      <c r="D51" t="n">
+        <v>280.5973856525353</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>150</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.65542475089024</v>
+      </c>
+      <c r="D52" t="n">
+        <v>279.0693938689324</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>151</v>
+      </c>
+      <c r="C53" t="n">
+        <v>24.2653284678802</v>
+      </c>
+      <c r="D53" t="n">
+        <v>276.0305747842062</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>152</v>
+      </c>
+      <c r="C54" t="n">
+        <v>28.10779013292497</v>
+      </c>
+      <c r="D54" t="n">
+        <v>279.6672857079956</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>153</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18.13048627926886</v>
+      </c>
+      <c r="D55" t="n">
+        <v>276.6678841638175</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZ17BQ4Z_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZ17BQ4Z_po_data.xlsx
@@ -989,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,16 +1008,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1026,12 +1016,6 @@
       <c r="B2" t="n">
         <v>70</v>
       </c>
-      <c r="C2" t="n">
-        <v>-57.60856723560526</v>
-      </c>
-      <c r="D2" t="n">
-        <v>197.12242250094</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1040,12 +1024,6 @@
       <c r="B3" t="n">
         <v>71</v>
       </c>
-      <c r="C3" t="n">
-        <v>-48.81965012255916</v>
-      </c>
-      <c r="D3" t="n">
-        <v>194.331159964443</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1054,12 +1032,6 @@
       <c r="B4" t="n">
         <v>73</v>
       </c>
-      <c r="C4" t="n">
-        <v>-55.86446618759714</v>
-      </c>
-      <c r="D4" t="n">
-        <v>209.6828617504705</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1068,12 +1040,6 @@
       <c r="B5" t="n">
         <v>74</v>
       </c>
-      <c r="C5" t="n">
-        <v>-51.09990030024967</v>
-      </c>
-      <c r="D5" t="n">
-        <v>202.6499034232732</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1082,12 +1048,6 @@
       <c r="B6" t="n">
         <v>76</v>
       </c>
-      <c r="C6" t="n">
-        <v>-54.03589468046058</v>
-      </c>
-      <c r="D6" t="n">
-        <v>205.2570916728295</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1096,12 +1056,6 @@
       <c r="B7" t="n">
         <v>77</v>
       </c>
-      <c r="C7" t="n">
-        <v>-53.13631300799709</v>
-      </c>
-      <c r="D7" t="n">
-        <v>202.2113623324555</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1110,12 +1064,6 @@
       <c r="B8" t="n">
         <v>78</v>
       </c>
-      <c r="C8" t="n">
-        <v>-52.51307762231691</v>
-      </c>
-      <c r="D8" t="n">
-        <v>193.4479367638591</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1124,12 +1072,6 @@
       <c r="B9" t="n">
         <v>79</v>
       </c>
-      <c r="C9" t="n">
-        <v>-56.36301886260774</v>
-      </c>
-      <c r="D9" t="n">
-        <v>207.154132257562</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1138,12 +1080,6 @@
       <c r="B10" t="n">
         <v>80</v>
       </c>
-      <c r="C10" t="n">
-        <v>-47.91654568790253</v>
-      </c>
-      <c r="D10" t="n">
-        <v>211.2622146244834</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1152,12 +1088,6 @@
       <c r="B11" t="n">
         <v>81</v>
       </c>
-      <c r="C11" t="n">
-        <v>-40.80488660396878</v>
-      </c>
-      <c r="D11" t="n">
-        <v>200.279716854368</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1166,12 +1096,6 @@
       <c r="B12" t="n">
         <v>82</v>
       </c>
-      <c r="C12" t="n">
-        <v>-47.47722395137555</v>
-      </c>
-      <c r="D12" t="n">
-        <v>204.5246730149104</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1180,12 +1104,6 @@
       <c r="B13" t="n">
         <v>84</v>
       </c>
-      <c r="C13" t="n">
-        <v>-39.68313071784359</v>
-      </c>
-      <c r="D13" t="n">
-        <v>207.1038983226011</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1194,12 +1112,6 @@
       <c r="B14" t="n">
         <v>84</v>
       </c>
-      <c r="C14" t="n">
-        <v>-34.22028902806881</v>
-      </c>
-      <c r="D14" t="n">
-        <v>206.0014867182419</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1208,12 +1120,6 @@
       <c r="B15" t="n">
         <v>85</v>
       </c>
-      <c r="C15" t="n">
-        <v>-41.33744722882256</v>
-      </c>
-      <c r="D15" t="n">
-        <v>203.864874519841</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1222,12 +1128,6 @@
       <c r="B16" t="n">
         <v>86</v>
       </c>
-      <c r="C16" t="n">
-        <v>-41.14589274586984</v>
-      </c>
-      <c r="D16" t="n">
-        <v>215.8039896036346</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1236,12 +1136,6 @@
       <c r="B17" t="n">
         <v>87</v>
       </c>
-      <c r="C17" t="n">
-        <v>-49.54589927081017</v>
-      </c>
-      <c r="D17" t="n">
-        <v>208.162260909397</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1250,12 +1144,6 @@
       <c r="B18" t="n">
         <v>88</v>
       </c>
-      <c r="C18" t="n">
-        <v>-36.67983870093261</v>
-      </c>
-      <c r="D18" t="n">
-        <v>209.3379111970686</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1264,12 +1152,6 @@
       <c r="B19" t="n">
         <v>89</v>
       </c>
-      <c r="C19" t="n">
-        <v>-35.92492353466768</v>
-      </c>
-      <c r="D19" t="n">
-        <v>223.3341457507771</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1278,12 +1160,6 @@
       <c r="B20" t="n">
         <v>90</v>
       </c>
-      <c r="C20" t="n">
-        <v>-30.10267239315218</v>
-      </c>
-      <c r="D20" t="n">
-        <v>217.7974295866267</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1292,12 +1168,6 @@
       <c r="B21" t="n">
         <v>91</v>
       </c>
-      <c r="C21" t="n">
-        <v>-32.27250225922514</v>
-      </c>
-      <c r="D21" t="n">
-        <v>218.7852674897666</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1306,12 +1176,6 @@
       <c r="B22" t="n">
         <v>92</v>
       </c>
-      <c r="C22" t="n">
-        <v>-39.32360290896273</v>
-      </c>
-      <c r="D22" t="n">
-        <v>218.3050518163494</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1320,12 +1184,6 @@
       <c r="B23" t="n">
         <v>93</v>
       </c>
-      <c r="C23" t="n">
-        <v>-44.45623783864209</v>
-      </c>
-      <c r="D23" t="n">
-        <v>216.7491256828592</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1334,12 +1192,6 @@
       <c r="B24" t="n">
         <v>96</v>
       </c>
-      <c r="C24" t="n">
-        <v>-28.80956400658151</v>
-      </c>
-      <c r="D24" t="n">
-        <v>217.9556104405984</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1348,12 +1200,6 @@
       <c r="B25" t="n">
         <v>97</v>
       </c>
-      <c r="C25" t="n">
-        <v>-26.35990577684787</v>
-      </c>
-      <c r="D25" t="n">
-        <v>222.0132826990824</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1362,12 +1208,6 @@
       <c r="B26" t="n">
         <v>98</v>
       </c>
-      <c r="C26" t="n">
-        <v>-35.29124029419165</v>
-      </c>
-      <c r="D26" t="n">
-        <v>219.2018384201755</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1376,12 +1216,6 @@
       <c r="B27" t="n">
         <v>99</v>
       </c>
-      <c r="C27" t="n">
-        <v>-22.88068274467107</v>
-      </c>
-      <c r="D27" t="n">
-        <v>225.7934827004731</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1390,12 +1224,6 @@
       <c r="B28" t="n">
         <v>100</v>
       </c>
-      <c r="C28" t="n">
-        <v>-30.66749780173316</v>
-      </c>
-      <c r="D28" t="n">
-        <v>223.2409796052005</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1404,12 +1232,6 @@
       <c r="B29" t="n">
         <v>101</v>
       </c>
-      <c r="C29" t="n">
-        <v>-24.03583138942167</v>
-      </c>
-      <c r="D29" t="n">
-        <v>235.9856403704042</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1418,12 +1240,6 @@
       <c r="B30" t="n">
         <v>101</v>
       </c>
-      <c r="C30" t="n">
-        <v>-29.00524281572673</v>
-      </c>
-      <c r="D30" t="n">
-        <v>233.1820860187117</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1432,12 +1248,6 @@
       <c r="B31" t="n">
         <v>102</v>
       </c>
-      <c r="C31" t="n">
-        <v>-26.41873036276019</v>
-      </c>
-      <c r="D31" t="n">
-        <v>235.4642775508224</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1446,12 +1256,6 @@
       <c r="B32" t="n">
         <v>104</v>
       </c>
-      <c r="C32" t="n">
-        <v>-19.24400464868381</v>
-      </c>
-      <c r="D32" t="n">
-        <v>237.2922065011009</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1460,12 +1264,6 @@
       <c r="B33" t="n">
         <v>107</v>
       </c>
-      <c r="C33" t="n">
-        <v>-25.56879016145766</v>
-      </c>
-      <c r="D33" t="n">
-        <v>235.9690933926576</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1474,12 +1272,6 @@
       <c r="B34" t="n">
         <v>109</v>
       </c>
-      <c r="C34" t="n">
-        <v>-22.25958876908686</v>
-      </c>
-      <c r="D34" t="n">
-        <v>236.0139849805244</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1488,12 +1280,6 @@
       <c r="B35" t="n">
         <v>115</v>
       </c>
-      <c r="C35" t="n">
-        <v>-11.24412133765992</v>
-      </c>
-      <c r="D35" t="n">
-        <v>240.5929232925409</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1502,12 +1288,6 @@
       <c r="B36" t="n">
         <v>124</v>
       </c>
-      <c r="C36" t="n">
-        <v>-1.341832401101204</v>
-      </c>
-      <c r="D36" t="n">
-        <v>241.201024396021</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1516,12 +1296,6 @@
       <c r="B37" t="n">
         <v>129</v>
       </c>
-      <c r="C37" t="n">
-        <v>9.89846468862263</v>
-      </c>
-      <c r="D37" t="n">
-        <v>249.1591546020886</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1530,12 +1304,6 @@
       <c r="B38" t="n">
         <v>130</v>
       </c>
-      <c r="C38" t="n">
-        <v>11.30976529547469</v>
-      </c>
-      <c r="D38" t="n">
-        <v>258.210596501035</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1544,12 +1312,6 @@
       <c r="B39" t="n">
         <v>133</v>
       </c>
-      <c r="C39" t="n">
-        <v>4.120943213235334</v>
-      </c>
-      <c r="D39" t="n">
-        <v>257.4006392365955</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1558,12 +1320,6 @@
       <c r="B40" t="n">
         <v>134</v>
       </c>
-      <c r="C40" t="n">
-        <v>11.66014310237502</v>
-      </c>
-      <c r="D40" t="n">
-        <v>263.2643585454342</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1572,12 +1328,6 @@
       <c r="B41" t="n">
         <v>135</v>
       </c>
-      <c r="C41" t="n">
-        <v>8.257796550263581</v>
-      </c>
-      <c r="D41" t="n">
-        <v>259.6578292632533</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1586,12 +1336,6 @@
       <c r="B42" t="n">
         <v>136</v>
       </c>
-      <c r="C42" t="n">
-        <v>6.055649324885635</v>
-      </c>
-      <c r="D42" t="n">
-        <v>261.3496916582055</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1600,12 +1344,6 @@
       <c r="B43" t="n">
         <v>136</v>
       </c>
-      <c r="C43" t="n">
-        <v>13.87335073449718</v>
-      </c>
-      <c r="D43" t="n">
-        <v>263.7094316517279</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1614,12 +1352,6 @@
       <c r="B44" t="n">
         <v>137</v>
       </c>
-      <c r="C44" t="n">
-        <v>6.183401511203953</v>
-      </c>
-      <c r="D44" t="n">
-        <v>255.9384453550017</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1628,12 +1360,6 @@
       <c r="B45" t="n">
         <v>138</v>
       </c>
-      <c r="C45" t="n">
-        <v>9.362262891394</v>
-      </c>
-      <c r="D45" t="n">
-        <v>263.1858571722306</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1642,12 +1368,6 @@
       <c r="B46" t="n">
         <v>139</v>
       </c>
-      <c r="C46" t="n">
-        <v>13.50064397415771</v>
-      </c>
-      <c r="D46" t="n">
-        <v>262.7352625706256</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1656,12 +1376,6 @@
       <c r="B47" t="n">
         <v>145</v>
       </c>
-      <c r="C47" t="n">
-        <v>18.57954366602796</v>
-      </c>
-      <c r="D47" t="n">
-        <v>269.2577063493997</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1670,12 +1384,6 @@
       <c r="B48" t="n">
         <v>146</v>
       </c>
-      <c r="C48" t="n">
-        <v>24.27161532585775</v>
-      </c>
-      <c r="D48" t="n">
-        <v>276.078348669432</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1684,12 +1392,6 @@
       <c r="B49" t="n">
         <v>147</v>
       </c>
-      <c r="C49" t="n">
-        <v>20.18703768672599</v>
-      </c>
-      <c r="D49" t="n">
-        <v>270.8569423361853</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1698,12 +1400,6 @@
       <c r="B50" t="n">
         <v>148</v>
       </c>
-      <c r="C50" t="n">
-        <v>12.8608120476648</v>
-      </c>
-      <c r="D50" t="n">
-        <v>268.9626278092605</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1712,12 +1408,6 @@
       <c r="B51" t="n">
         <v>149</v>
       </c>
-      <c r="C51" t="n">
-        <v>24.13246722295109</v>
-      </c>
-      <c r="D51" t="n">
-        <v>280.5973856525353</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1726,12 +1416,6 @@
       <c r="B52" t="n">
         <v>150</v>
       </c>
-      <c r="C52" t="n">
-        <v>32.65542475089024</v>
-      </c>
-      <c r="D52" t="n">
-        <v>279.0693938689324</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1740,12 +1424,6 @@
       <c r="B53" t="n">
         <v>151</v>
       </c>
-      <c r="C53" t="n">
-        <v>24.2653284678802</v>
-      </c>
-      <c r="D53" t="n">
-        <v>276.0305747842062</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1754,12 +1432,6 @@
       <c r="B54" t="n">
         <v>152</v>
       </c>
-      <c r="C54" t="n">
-        <v>28.10779013292497</v>
-      </c>
-      <c r="D54" t="n">
-        <v>279.6672857079956</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1767,12 +1439,6 @@
       </c>
       <c r="B55" t="n">
         <v>153</v>
-      </c>
-      <c r="C55" t="n">
-        <v>18.13048627926886</v>
-      </c>
-      <c r="D55" t="n">
-        <v>276.6678841638175</v>
       </c>
     </row>
   </sheetData>
